--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:21:11+00:00</t>
+    <t>2024-10-10T16:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:26:55+00:00</t>
+    <t>2024-10-10T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:40:38+00:00</t>
+    <t>2024-10-11T14:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:20:05+00:00</t>
+    <t>2024-10-31T12:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:52:49+00:00</t>
+    <t>2024-11-05T10:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:01:35+00:00</t>
+    <t>2024-11-08T16:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:53:16+00:00</t>
+    <t>2024-11-08T17:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:02:00+00:00</t>
+    <t>2024-11-08T17:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:33:21+00:00</t>
+    <t>2024-11-13T21:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2197,8 +2197,8 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:$this.resolve()}
-</t>
+    <t>pattern:system}
+exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -3000,7 +3000,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="89.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:35:06+00:00</t>
+    <t>2024-11-14T08:22:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:22:05+00:00</t>
+    <t>2024-11-18T16:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:15:50+00:00</t>
+    <t>2024-12-02T14:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8402" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8402" uniqueCount="854">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:05:36+00:00</t>
+    <t>2025-01-15T07:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -943,6 +943,9 @@
   </si>
   <si>
     <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la caducité de l'autorisation sanitaire.</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.dateAutorisation</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -1288,6 +1291,9 @@
     <t>Identifiant SIRET (14 chiffres)</t>
   </si>
   <si>
+    <t>EntiteGeographique.numSiret</t>
+  </si>
+  <si>
     <t>Organization.identifier:siret.id</t>
   </si>
   <si>
@@ -1582,6 +1588,12 @@
     <t>Identifiant ADELI rang (9 chiffres ADELI + 2 chiffres RANG)</t>
   </si>
   <si>
+    <t>EntiteGeographique.identifiantEJ</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.identifiantEG</t>
+  </si>
+  <si>
     <t>Organization.identifier:adeliRang.id</t>
   </si>
   <si>
@@ -1867,6 +1879,9 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS</t>
   </si>
   <si>
+    <t>EntiteGeographique.secteurActivite</t>
+  </si>
+  <si>
     <t>Organization.type:secteurActiviteRASS.id</t>
   </si>
   <si>
@@ -1925,6 +1940,9 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.categorieEtablissement</t>
   </si>
   <si>
     <t>Organization.type:categorieEtablissementRASS.id</t>
@@ -2021,6 +2039,9 @@
     <t>EntiteJuridique.statutJuridique</t>
   </si>
   <si>
+    <t>EntiteGeographique.statutJuridique</t>
+  </si>
+  <si>
     <t>Organization.type:statutJuridiqueINSEE.id</t>
   </si>
   <si>
@@ -2060,6 +2081,9 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J162-ESPIC-RASS/FHIR/JDV-J162-ESPIC-RASS</t>
   </si>
   <si>
+    <t>EntiteGeographique.modaliteParticipationSPH</t>
+  </si>
+  <si>
     <t>Organization.type:sphParticipation.id</t>
   </si>
   <si>
@@ -2097,6 +2121,9 @@
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/as-vs-type-etablissement</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.typeEtablissement</t>
   </si>
   <si>
     <t>Organization.type:typeEtablissement.id</t>
@@ -2197,7 +2224,7 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t>pattern:system}
+    <t>value:system}
 exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
@@ -2380,9 +2407,6 @@
     <t>EntiteJuridique.boiteLettreMSS</t>
   </si>
   <si>
-    <t>EntiteGeographique.boiteLettreMSS</t>
-  </si>
-  <si>
     <t>Organization.address</t>
   </si>
   <si>
@@ -2435,6 +2459,9 @@
   </si>
   <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>EntiteGeographique.EntiteJuridique</t>
   </si>
   <si>
     <t>.playedBy[classCode=Part].scoper</t>
@@ -3009,7 +3036,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="39.41015625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.02734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.2578125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="45.6171875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="218.1953125" customWidth="true" bestFit="true"/>
@@ -7315,7 +7342,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -7332,10 +7359,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7361,16 +7388,16 @@
         <v>112</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -7419,7 +7446,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -7454,10 +7481,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7480,17 +7507,17 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -7527,10 +7554,10 @@
         <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>79</v>
@@ -7539,7 +7566,7 @@
         <v>118</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7548,7 +7575,7 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>103</v>
@@ -7560,27 +7587,27 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>79</v>
@@ -7602,17 +7629,17 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -7661,7 +7688,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7670,36 +7697,36 @@
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7814,10 +7841,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7934,10 +7961,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7963,16 +7990,16 @@
         <v>176</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7982,7 +8009,7 @@
         <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>79</v>
@@ -7997,13 +8024,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -8021,7 +8048,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -8045,7 +8072,7 @@
         <v>199</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -8056,10 +8083,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -8082,19 +8109,19 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -8104,7 +8131,7 @@
         <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>79</v>
@@ -8122,10 +8149,10 @@
         <v>158</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -8143,7 +8170,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -8164,10 +8191,10 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -8178,10 +8205,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8207,16 +8234,16 @@
         <v>138</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -8226,10 +8253,10 @@
         <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>79</v>
@@ -8265,7 +8292,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -8286,13 +8313,13 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -8300,10 +8327,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8329,13 +8356,13 @@
         <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -8349,7 +8376,7 @@
         <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>79</v>
@@ -8385,7 +8412,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -8406,13 +8433,13 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -8420,10 +8447,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8449,10 +8476,10 @@
         <v>230</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8503,7 +8530,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -8524,13 +8551,13 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -8538,10 +8565,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8564,16 +8591,16 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8623,7 +8650,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8644,13 +8671,13 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>79</v>
@@ -8658,13 +8685,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>79</v>
@@ -8686,17 +8713,17 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -8745,7 +8772,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8754,36 +8781,36 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8898,10 +8925,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -9018,10 +9045,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9047,16 +9074,16 @@
         <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -9081,13 +9108,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -9105,7 +9132,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -9129,7 +9156,7 @@
         <v>199</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -9140,10 +9167,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9166,19 +9193,19 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -9188,7 +9215,7 @@
         <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>79</v>
@@ -9206,10 +9233,10 @@
         <v>158</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -9227,7 +9254,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -9248,10 +9275,10 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -9262,10 +9289,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9291,16 +9318,16 @@
         <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -9310,10 +9337,10 @@
         <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>79</v>
@@ -9349,7 +9376,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9370,13 +9397,13 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>79</v>
@@ -9384,10 +9411,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9413,13 +9440,13 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9433,7 +9460,7 @@
         <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>79</v>
@@ -9469,7 +9496,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9490,13 +9517,13 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -9504,10 +9531,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9533,10 +9560,10 @@
         <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9587,7 +9614,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9608,13 +9635,13 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -9622,10 +9649,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9648,16 +9675,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9707,7 +9734,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9728,13 +9755,13 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -9742,13 +9769,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>79</v>
@@ -9770,17 +9797,17 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9829,7 +9856,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9838,7 +9865,7 @@
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
@@ -9847,27 +9874,27 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9982,10 +10009,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10102,10 +10129,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10131,16 +10158,16 @@
         <v>176</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -10165,13 +10192,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -10189,7 +10216,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -10213,7 +10240,7 @@
         <v>199</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -10224,10 +10251,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10250,19 +10277,19 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -10272,7 +10299,7 @@
         <v>79</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>79</v>
@@ -10290,10 +10317,10 @@
         <v>158</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -10311,7 +10338,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10332,10 +10359,10 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -10346,10 +10373,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10375,16 +10402,16 @@
         <v>138</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -10394,10 +10421,10 @@
         <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>79</v>
@@ -10433,7 +10460,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10454,13 +10481,13 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -10468,10 +10495,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10497,13 +10524,13 @@
         <v>105</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10517,7 +10544,7 @@
         <v>79</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>79</v>
@@ -10553,7 +10580,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10574,13 +10601,13 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>79</v>
@@ -10588,10 +10615,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10617,10 +10644,10 @@
         <v>230</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10671,7 +10698,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10692,13 +10719,13 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -10706,10 +10733,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10732,16 +10759,16 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10791,7 +10818,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10812,13 +10839,13 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>79</v>
@@ -10826,13 +10853,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>79</v>
@@ -10854,17 +10881,17 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10913,7 +10940,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10922,36 +10949,36 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11066,10 +11093,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11186,10 +11213,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11215,16 +11242,16 @@
         <v>176</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -11249,13 +11276,13 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -11273,7 +11300,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -11297,7 +11324,7 @@
         <v>199</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -11308,10 +11335,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11334,19 +11361,19 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -11374,10 +11401,10 @@
         <v>158</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -11395,7 +11422,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -11416,10 +11443,10 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -11430,10 +11457,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11548,10 +11575,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11668,10 +11695,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11697,16 +11724,16 @@
         <v>154</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11755,7 +11782,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11776,10 +11803,10 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11790,10 +11817,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11908,10 +11935,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12028,10 +12055,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12057,16 +12084,16 @@
         <v>138</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -12076,7 +12103,7 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>79</v>
@@ -12115,7 +12142,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -12136,10 +12163,10 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -12150,10 +12177,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12179,13 +12206,13 @@
         <v>105</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -12235,7 +12262,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -12256,10 +12283,10 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -12270,10 +12297,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12299,14 +12326,14 @@
         <v>176</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -12355,7 +12382,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -12376,10 +12403,10 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -12390,10 +12417,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12419,14 +12446,14 @@
         <v>105</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -12475,7 +12502,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12496,10 +12523,10 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -12510,10 +12537,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12536,19 +12563,19 @@
         <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -12597,7 +12624,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12618,10 +12645,10 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -12632,10 +12659,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12661,16 +12688,16 @@
         <v>105</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -12719,7 +12746,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12740,10 +12767,10 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -12754,10 +12781,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12783,16 +12810,16 @@
         <v>138</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -12802,10 +12829,10 @@
         <v>79</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="T82" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U82" t="s" s="2">
         <v>79</v>
@@ -12841,7 +12868,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12862,13 +12889,13 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>79</v>
@@ -12876,10 +12903,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12905,13 +12932,13 @@
         <v>105</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12925,7 +12952,7 @@
         <v>79</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>79</v>
@@ -12961,7 +12988,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12982,13 +13009,13 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>79</v>
@@ -12996,10 +13023,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13025,10 +13052,10 @@
         <v>230</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -13079,7 +13106,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -13100,13 +13127,13 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -13114,10 +13141,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13140,16 +13167,16 @@
         <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -13199,7 +13226,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -13220,13 +13247,13 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>79</v>
@@ -13234,13 +13261,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>79</v>
@@ -13262,17 +13289,17 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -13321,7 +13348,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13330,36 +13357,36 @@
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13474,10 +13501,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13594,10 +13621,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13623,16 +13650,16 @@
         <v>176</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -13657,13 +13684,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -13681,7 +13708,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13705,7 +13732,7 @@
         <v>199</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -13716,10 +13743,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13742,19 +13769,19 @@
         <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -13764,7 +13791,7 @@
         <v>79</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>79</v>
@@ -13782,10 +13809,10 @@
         <v>158</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -13803,7 +13830,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13824,10 +13851,10 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13838,10 +13865,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13867,16 +13894,16 @@
         <v>138</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13886,10 +13913,10 @@
         <v>79</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>79</v>
@@ -13925,7 +13952,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13946,13 +13973,13 @@
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>79</v>
@@ -13960,10 +13987,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13989,13 +14016,13 @@
         <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -14009,7 +14036,7 @@
         <v>79</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>79</v>
@@ -14045,7 +14072,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -14066,13 +14093,13 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>79</v>
@@ -14080,10 +14107,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14109,10 +14136,10 @@
         <v>230</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -14163,7 +14190,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -14184,13 +14211,13 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>79</v>
@@ -14198,10 +14225,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14224,16 +14251,16 @@
         <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -14283,7 +14310,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -14304,13 +14331,13 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>79</v>
@@ -14318,13 +14345,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>79</v>
@@ -14346,17 +14373,17 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -14405,7 +14432,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -14414,36 +14441,36 @@
         <v>81</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14558,10 +14585,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14678,10 +14705,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14707,16 +14734,16 @@
         <v>176</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -14741,13 +14768,13 @@
         <v>79</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>79</v>
@@ -14765,7 +14792,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14789,7 +14816,7 @@
         <v>199</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -14800,10 +14827,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14826,19 +14853,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -14848,7 +14875,7 @@
         <v>79</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>79</v>
@@ -14866,10 +14893,10 @@
         <v>158</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>79</v>
@@ -14887,7 +14914,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14908,10 +14935,10 @@
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -14922,10 +14949,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14951,16 +14978,16 @@
         <v>138</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -14970,10 +14997,10 @@
         <v>79</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="T100" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U100" t="s" s="2">
         <v>79</v>
@@ -15009,7 +15036,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -15030,13 +15057,13 @@
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>79</v>
@@ -15044,10 +15071,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15073,13 +15100,13 @@
         <v>105</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -15093,7 +15120,7 @@
         <v>79</v>
       </c>
       <c r="T101" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U101" t="s" s="2">
         <v>79</v>
@@ -15129,7 +15156,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -15150,13 +15177,13 @@
         <v>79</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>79</v>
@@ -15164,10 +15191,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15193,10 +15220,10 @@
         <v>230</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -15247,7 +15274,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15268,13 +15295,13 @@
         <v>79</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>79</v>
@@ -15282,10 +15309,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15308,16 +15335,16 @@
         <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -15367,7 +15394,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15388,13 +15415,13 @@
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>79</v>
@@ -15402,10 +15429,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15428,70 +15455,70 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="O104" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q104" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF104" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q104" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15509,27 +15536,27 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15552,19 +15579,19 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>79</v>
@@ -15592,16 +15619,16 @@
         <v>166</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AC105" s="2"/>
       <c r="AD105" t="s" s="2">
@@ -15611,7 +15638,7 @@
         <v>118</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15632,27 +15659,27 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>79</v>
@@ -15674,19 +15701,19 @@
         <v>92</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>79</v>
@@ -15711,11 +15738,11 @@
         <v>79</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y106" s="2"/>
       <c r="Z106" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>79</v>
@@ -15733,7 +15760,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15754,24 +15781,24 @@
         <v>79</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15886,10 +15913,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16004,13 +16031,13 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>79</v>
@@ -16032,13 +16059,13 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -16124,10 +16151,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16242,10 +16269,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16360,10 +16387,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16403,7 +16430,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>79</v>
@@ -16480,10 +16507,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16512,7 +16539,7 @@
         <v>231</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16524,7 +16551,7 @@
         <v>79</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>79</v>
@@ -16539,11 +16566,11 @@
         <v>79</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>79</v>
@@ -16596,10 +16623,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16625,16 +16652,16 @@
         <v>154</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>79</v>
@@ -16683,7 +16710,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16704,10 +16731,10 @@
         <v>79</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>79</v>
@@ -16718,10 +16745,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16836,10 +16863,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16956,10 +16983,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16985,16 +17012,16 @@
         <v>138</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>79</v>
@@ -17043,7 +17070,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17064,10 +17091,10 @@
         <v>79</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>79</v>
@@ -17078,10 +17105,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17107,13 +17134,13 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -17163,7 +17190,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17184,10 +17211,10 @@
         <v>79</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>79</v>
@@ -17198,10 +17225,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17227,14 +17254,14 @@
         <v>176</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>79</v>
@@ -17283,7 +17310,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17304,10 +17331,10 @@
         <v>79</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>79</v>
@@ -17318,10 +17345,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17347,14 +17374,14 @@
         <v>105</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>79</v>
@@ -17403,7 +17430,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17424,10 +17451,10 @@
         <v>79</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>79</v>
@@ -17438,10 +17465,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17464,19 +17491,19 @@
         <v>92</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>79</v>
@@ -17525,7 +17552,7 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17546,10 +17573,10 @@
         <v>79</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>79</v>
@@ -17560,10 +17587,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17589,16 +17616,16 @@
         <v>105</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>79</v>
@@ -17647,7 +17674,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17668,10 +17695,10 @@
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>79</v>
@@ -17682,13 +17709,13 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>79</v>
@@ -17710,19 +17737,19 @@
         <v>92</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>79</v>
@@ -17747,11 +17774,11 @@
         <v>79</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>79</v>
@@ -17769,7 +17796,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17787,27 +17814,27 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17922,10 +17949,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18040,13 +18067,13 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>79</v>
@@ -18068,13 +18095,13 @@
         <v>79</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18160,10 +18187,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18278,10 +18305,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18396,10 +18423,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18439,7 +18466,7 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="S129" t="s" s="2">
         <v>79</v>
@@ -18516,10 +18543,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18548,7 +18575,7 @@
         <v>231</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18560,7 +18587,7 @@
         <v>79</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>79</v>
@@ -18575,11 +18602,11 @@
         <v>79</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y130" s="2"/>
       <c r="Z130" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>79</v>
@@ -18632,10 +18659,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18661,16 +18688,16 @@
         <v>154</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>79</v>
@@ -18719,7 +18746,7 @@
         <v>79</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18740,10 +18767,10 @@
         <v>79</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>79</v>
@@ -18754,10 +18781,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18872,10 +18899,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18992,10 +19019,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19021,16 +19048,16 @@
         <v>138</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>79</v>
@@ -19079,7 +19106,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19100,10 +19127,10 @@
         <v>79</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>79</v>
@@ -19114,10 +19141,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19143,13 +19170,13 @@
         <v>105</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -19199,7 +19226,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19220,10 +19247,10 @@
         <v>79</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>79</v>
@@ -19234,10 +19261,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19263,14 +19290,14 @@
         <v>176</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>79</v>
@@ -19319,7 +19346,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19340,10 +19367,10 @@
         <v>79</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>79</v>
@@ -19354,10 +19381,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19383,14 +19410,14 @@
         <v>105</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>79</v>
@@ -19439,7 +19466,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19460,10 +19487,10 @@
         <v>79</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>79</v>
@@ -19474,10 +19501,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19500,19 +19527,19 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -19561,7 +19588,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19582,10 +19609,10 @@
         <v>79</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>79</v>
@@ -19596,10 +19623,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19625,16 +19652,16 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>79</v>
@@ -19683,7 +19710,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19704,10 +19731,10 @@
         <v>79</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>79</v>
@@ -19718,13 +19745,13 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>79</v>
@@ -19746,19 +19773,19 @@
         <v>92</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>79</v>
@@ -19783,11 +19810,11 @@
         <v>79</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>79</v>
@@ -19805,7 +19832,7 @@
         <v>79</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19823,27 +19850,27 @@
         <v>79</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP140" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19958,10 +19985,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20078,10 +20105,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20107,16 +20134,16 @@
         <v>154</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>79</v>
@@ -20165,7 +20192,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20186,10 +20213,10 @@
         <v>79</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>79</v>
@@ -20200,10 +20227,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20318,10 +20345,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20438,10 +20465,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20467,16 +20494,16 @@
         <v>138</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>79</v>
@@ -20525,7 +20552,7 @@
         <v>79</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20546,10 +20573,10 @@
         <v>79</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>79</v>
@@ -20560,10 +20587,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20589,13 +20616,13 @@
         <v>105</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20645,7 +20672,7 @@
         <v>79</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20666,10 +20693,10 @@
         <v>79</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>79</v>
@@ -20680,10 +20707,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20709,14 +20736,14 @@
         <v>176</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>79</v>
@@ -20765,7 +20792,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20786,10 +20813,10 @@
         <v>79</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>79</v>
@@ -20800,10 +20827,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20829,14 +20856,14 @@
         <v>105</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -20885,7 +20912,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20906,10 +20933,10 @@
         <v>79</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>79</v>
@@ -20920,10 +20947,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20946,19 +20973,19 @@
         <v>92</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>79</v>
@@ -21007,7 +21034,7 @@
         <v>79</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21028,10 +21055,10 @@
         <v>79</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>79</v>
@@ -21042,10 +21069,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21071,16 +21098,16 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>79</v>
@@ -21129,7 +21156,7 @@
         <v>79</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21150,10 +21177,10 @@
         <v>79</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>79</v>
@@ -21164,13 +21191,13 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>79</v>
@@ -21192,19 +21219,19 @@
         <v>92</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>79</v>
@@ -21229,11 +21256,11 @@
         <v>79</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y152" s="2"/>
       <c r="Z152" t="s" s="2">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>79</v>
@@ -21251,7 +21278,7 @@
         <v>79</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21266,30 +21293,30 @@
         <v>103</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP152" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21404,10 +21431,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21522,13 +21549,13 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>79</v>
@@ -21550,13 +21577,13 @@
         <v>79</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -21642,10 +21669,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21760,10 +21787,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21878,10 +21905,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21921,7 +21948,7 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>79</v>
@@ -21998,10 +22025,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22030,7 +22057,7 @@
         <v>231</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -22042,7 +22069,7 @@
         <v>79</v>
       </c>
       <c r="S159" t="s" s="2">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>79</v>
@@ -22057,11 +22084,11 @@
         <v>79</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y159" s="2"/>
       <c r="Z159" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>79</v>
@@ -22114,10 +22141,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22143,16 +22170,16 @@
         <v>154</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>79</v>
@@ -22201,7 +22228,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22222,10 +22249,10 @@
         <v>79</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>79</v>
@@ -22236,10 +22263,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22265,16 +22292,16 @@
         <v>105</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>79</v>
@@ -22323,7 +22350,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22344,10 +22371,10 @@
         <v>79</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>79</v>
@@ -22358,13 +22385,13 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>79</v>
@@ -22386,19 +22413,19 @@
         <v>92</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>79</v>
@@ -22423,11 +22450,11 @@
         <v>79</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y162" s="2"/>
       <c r="Z162" t="s" s="2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>79</v>
@@ -22445,7 +22472,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22460,30 +22487,30 @@
         <v>103</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>79</v>
+        <v>650</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP162" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22598,10 +22625,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22716,13 +22743,13 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>79</v>
@@ -22744,13 +22771,13 @@
         <v>79</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -22836,10 +22863,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22954,10 +22981,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23072,10 +23099,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23115,7 +23142,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>79</v>
@@ -23192,10 +23219,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23224,7 +23251,7 @@
         <v>231</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -23236,7 +23263,7 @@
         <v>79</v>
       </c>
       <c r="S169" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>79</v>
@@ -23251,11 +23278,11 @@
         <v>79</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y169" s="2"/>
       <c r="Z169" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>79</v>
@@ -23308,10 +23335,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23337,16 +23364,16 @@
         <v>154</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>79</v>
@@ -23395,7 +23422,7 @@
         <v>79</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23416,10 +23443,10 @@
         <v>79</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>79</v>
@@ -23430,10 +23457,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23459,16 +23486,16 @@
         <v>105</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>79</v>
@@ -23517,7 +23544,7 @@
         <v>79</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23538,10 +23565,10 @@
         <v>79</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>79</v>
@@ -23552,13 +23579,13 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>79</v>
@@ -23580,19 +23607,19 @@
         <v>92</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>79</v>
@@ -23617,11 +23644,11 @@
         <v>79</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y172" s="2"/>
       <c r="Z172" t="s" s="2">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>79</v>
@@ -23639,7 +23666,7 @@
         <v>79</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23657,27 +23684,27 @@
         <v>79</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>629</v>
+        <v>664</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP172" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23792,10 +23819,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23910,13 +23937,13 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>79</v>
@@ -23938,13 +23965,13 @@
         <v>79</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -24030,10 +24057,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24148,10 +24175,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24266,10 +24293,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24309,7 +24336,7 @@
       </c>
       <c r="Q178" s="2"/>
       <c r="R178" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="S178" t="s" s="2">
         <v>79</v>
@@ -24386,10 +24413,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24418,7 +24445,7 @@
         <v>231</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -24430,7 +24457,7 @@
         <v>79</v>
       </c>
       <c r="S179" t="s" s="2">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="T179" t="s" s="2">
         <v>79</v>
@@ -24445,11 +24472,11 @@
         <v>79</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y179" s="2"/>
       <c r="Z179" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>79</v>
@@ -24502,10 +24529,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24531,16 +24558,16 @@
         <v>154</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>79</v>
@@ -24589,7 +24616,7 @@
         <v>79</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24610,10 +24637,10 @@
         <v>79</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>79</v>
@@ -24624,10 +24651,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24653,16 +24680,16 @@
         <v>105</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>79</v>
@@ -24711,7 +24738,7 @@
         <v>79</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24732,10 +24759,10 @@
         <v>79</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>79</v>
@@ -24746,13 +24773,13 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>79</v>
@@ -24774,19 +24801,19 @@
         <v>92</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>79</v>
@@ -24811,11 +24838,11 @@
         <v>79</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y182" s="2"/>
       <c r="Z182" t="s" s="2">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>79</v>
@@ -24833,7 +24860,7 @@
         <v>79</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24851,27 +24878,27 @@
         <v>79</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>79</v>
+        <v>678</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AP182" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24986,10 +25013,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25104,13 +25131,13 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>79</v>
@@ -25132,13 +25159,13 @@
         <v>79</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -25224,10 +25251,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25342,10 +25369,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25460,10 +25487,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25503,7 +25530,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>79</v>
@@ -25580,10 +25607,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25612,7 +25639,7 @@
         <v>231</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -25624,7 +25651,7 @@
         <v>79</v>
       </c>
       <c r="S189" t="s" s="2">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="T189" t="s" s="2">
         <v>79</v>
@@ -25639,11 +25666,11 @@
         <v>79</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y189" s="2"/>
       <c r="Z189" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>79</v>
@@ -25696,10 +25723,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25725,16 +25752,16 @@
         <v>154</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>79</v>
@@ -25783,7 +25810,7 @@
         <v>79</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25804,10 +25831,10 @@
         <v>79</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AN190" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO190" t="s" s="2">
         <v>79</v>
@@ -25818,10 +25845,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25847,16 +25874,16 @@
         <v>105</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>79</v>
@@ -25905,7 +25932,7 @@
         <v>79</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25926,10 +25953,10 @@
         <v>79</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN191" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AO191" t="s" s="2">
         <v>79</v>
@@ -25940,10 +25967,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25969,16 +25996,16 @@
         <v>105</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>79</v>
@@ -26027,7 +26054,7 @@
         <v>79</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26036,25 +26063,25 @@
         <v>91</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="AO192" t="s" s="2">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="AP192" t="s" s="2">
         <v>79</v>
@@ -26062,10 +26089,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26091,16 +26118,16 @@
         <v>105</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>79</v>
@@ -26149,7 +26176,7 @@
         <v>79</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26164,16 +26191,16 @@
         <v>103</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="AO193" t="s" s="2">
         <v>79</v>
@@ -26184,10 +26211,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26210,19 +26237,19 @@
         <v>79</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>79</v>
@@ -26259,7 +26286,7 @@
         <v>79</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="AC194" s="2"/>
       <c r="AD194" t="s" s="2">
@@ -26269,7 +26296,7 @@
         <v>118</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -26281,22 +26308,22 @@
         <v>208</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="AO194" t="s" s="2">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="AP194" t="s" s="2">
         <v>79</v>
@@ -26304,10 +26331,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26422,10 +26449,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26542,13 +26569,13 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>79</v>
@@ -26570,13 +26597,13 @@
         <v>79</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -26662,10 +26689,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26691,10 +26718,10 @@
         <v>176</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -26721,13 +26748,13 @@
         <v>79</v>
       </c>
       <c r="X198" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>79</v>
@@ -26745,7 +26772,7 @@
         <v>79</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -26754,7 +26781,7 @@
         <v>91</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>103</v>
@@ -26766,13 +26793,13 @@
         <v>79</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="AO198" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="AP198" t="s" s="2">
         <v>79</v>
@@ -26780,10 +26807,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26809,16 +26836,16 @@
         <v>105</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>79</v>
@@ -26867,7 +26894,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
@@ -26888,13 +26915,13 @@
         <v>79</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>79</v>
@@ -26902,10 +26929,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26931,16 +26958,16 @@
         <v>176</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>79</v>
@@ -26965,13 +26992,13 @@
         <v>79</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>79</v>
@@ -26989,7 +27016,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
@@ -27010,13 +27037,13 @@
         <v>79</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="AO200" t="s" s="2">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="AP200" t="s" s="2">
         <v>79</v>
@@ -27024,10 +27051,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27050,16 +27077,16 @@
         <v>92</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -27109,7 +27136,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
@@ -27144,10 +27171,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27173,10 +27200,10 @@
         <v>230</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -27227,7 +27254,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -27251,10 +27278,10 @@
         <v>199</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AO202" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP202" t="s" s="2">
         <v>79</v>
@@ -27262,13 +27289,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>79</v>
@@ -27290,19 +27317,19 @@
         <v>79</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>79</v>
@@ -27351,7 +27378,7 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
@@ -27363,22 +27390,22 @@
         <v>208</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="AO203" t="s" s="2">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="AP203" t="s" s="2">
         <v>79</v>
@@ -27386,10 +27413,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27412,19 +27439,19 @@
         <v>79</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
@@ -27473,7 +27500,7 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -27485,22 +27512,22 @@
         <v>208</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="AO204" t="s" s="2">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="AP204" t="s" s="2">
         <v>79</v>
@@ -27508,10 +27535,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27534,17 +27561,17 @@
         <v>92</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -27593,7 +27620,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -27611,13 +27638,13 @@
         <v>79</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>79</v>
+        <v>787</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>109</v>
@@ -27628,10 +27655,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27746,10 +27773,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27866,10 +27893,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27895,13 +27922,13 @@
         <v>105</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -27951,7 +27978,7 @@
         <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
@@ -27960,7 +27987,7 @@
         <v>91</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>103</v>
@@ -27986,10 +28013,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28015,13 +28042,13 @@
         <v>138</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -28051,7 +28078,7 @@
       </c>
       <c r="Y209" s="2"/>
       <c r="Z209" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>79</v>
@@ -28069,7 +28096,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -28104,10 +28131,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28130,16 +28157,16 @@
         <v>92</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28189,7 +28216,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28213,7 +28240,7 @@
         <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>79</v>
@@ -28224,10 +28251,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28253,13 +28280,13 @@
         <v>105</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28309,7 +28336,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28344,10 +28371,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28370,19 +28397,19 @@
         <v>79</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>79</v>
@@ -28431,7 +28458,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28455,7 +28482,7 @@
         <v>79</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>79</v>
@@ -28466,10 +28493,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28584,10 +28611,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28704,14 +28731,14 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -28733,16 +28760,16 @@
         <v>112</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="N215" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O215" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>79</v>
@@ -28791,7 +28818,7 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
@@ -28826,10 +28853,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28852,17 +28879,17 @@
         <v>79</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
@@ -28890,10 +28917,10 @@
         <v>158</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>79</v>
@@ -28911,7 +28938,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28935,7 +28962,7 @@
         <v>79</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>79</v>
@@ -28946,10 +28973,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28972,17 +28999,17 @@
         <v>79</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -29031,7 +29058,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29052,10 +29079,10 @@
         <v>79</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -29066,10 +29093,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29092,17 +29119,17 @@
         <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29151,7 +29178,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -29163,7 +29190,7 @@
         <v>208</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="AK218" t="s" s="2">
         <v>79</v>
@@ -29172,13 +29199,13 @@
         <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="AO218" t="s" s="2">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="AP218" t="s" s="2">
         <v>79</v>
@@ -29186,10 +29213,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29212,19 +29239,19 @@
         <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>79</v>
@@ -29273,7 +29300,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29294,13 +29321,13 @@
         <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="AO219" t="s" s="2">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>79</v>
@@ -29308,10 +29335,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29334,17 +29361,17 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>79</v>
@@ -29393,7 +29420,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-15T07:47:50+00:00</t>
+    <t>2025-01-27T16:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-organization.xlsx
+++ b/main/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:40:24+00:00</t>
+    <t>2025-01-27T17:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
